--- a/data/pca/factorExposure/factorExposure_2017-07-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02351110118082965</v>
+        <v>0.008796288387707457</v>
       </c>
       <c r="C2">
-        <v>-0.003537570032979878</v>
+        <v>-0.04277329930070958</v>
       </c>
       <c r="D2">
-        <v>0.02420624665691786</v>
+        <v>-0.02976833914210274</v>
       </c>
       <c r="E2">
-        <v>-0.01145874449727302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03211925547019916</v>
+      </c>
+      <c r="F2">
+        <v>0.01275738550165038</v>
+      </c>
+      <c r="G2">
+        <v>0.0746505191904961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01763627164756699</v>
+        <v>0.04937880597128209</v>
       </c>
       <c r="C3">
-        <v>0.0542776956380277</v>
+        <v>-0.08185157561019621</v>
       </c>
       <c r="D3">
-        <v>0.03734136802499814</v>
+        <v>-0.01695974552645083</v>
       </c>
       <c r="E3">
-        <v>-0.01524049928428379</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.103898506296031</v>
+      </c>
+      <c r="F3">
+        <v>0.01253041658755691</v>
+      </c>
+      <c r="G3">
+        <v>0.1801600252447989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02331001604337267</v>
+        <v>0.05848900431634761</v>
       </c>
       <c r="C4">
-        <v>0.01034473427519311</v>
+        <v>-0.06400474607778538</v>
       </c>
       <c r="D4">
-        <v>0.07716359908778489</v>
+        <v>-0.02424588809537698</v>
       </c>
       <c r="E4">
-        <v>0.01498324027650321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02353231197121683</v>
+      </c>
+      <c r="F4">
+        <v>0.008474656566182256</v>
+      </c>
+      <c r="G4">
+        <v>0.08242343939520638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01488641887201378</v>
+        <v>0.03846021490167016</v>
       </c>
       <c r="C6">
-        <v>0.00434825126261801</v>
+        <v>-0.05314019396266321</v>
       </c>
       <c r="D6">
-        <v>0.08490918856624573</v>
+        <v>-0.01659100707156657</v>
       </c>
       <c r="E6">
-        <v>0.00878843799597917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02512716519316238</v>
+      </c>
+      <c r="F6">
+        <v>0.0115552967886063</v>
+      </c>
+      <c r="G6">
+        <v>0.05986070534247146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01126776704029248</v>
+        <v>0.02061121067049813</v>
       </c>
       <c r="C7">
-        <v>0.007064008208147517</v>
+        <v>-0.04116367765763478</v>
       </c>
       <c r="D7">
-        <v>0.04163019547352714</v>
+        <v>-0.01311667119537927</v>
       </c>
       <c r="E7">
-        <v>0.06014282440203911</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.006105558340007334</v>
+      </c>
+      <c r="F7">
+        <v>-0.005519280833123597</v>
+      </c>
+      <c r="G7">
+        <v>0.1155814873976233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-5.962359500802121e-05</v>
+        <v>0.001741171362667553</v>
       </c>
       <c r="C8">
-        <v>-0.003169179289874046</v>
+        <v>-0.02407721162239152</v>
       </c>
       <c r="D8">
-        <v>0.005186557046316551</v>
+        <v>-0.004097180429292122</v>
       </c>
       <c r="E8">
-        <v>0.008050821207322371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02110993586846969</v>
+      </c>
+      <c r="F8">
+        <v>0.00867315848017184</v>
+      </c>
+      <c r="G8">
+        <v>0.05677706299724408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.0162663963449686</v>
+        <v>0.03437735742024826</v>
       </c>
       <c r="C9">
-        <v>0.01379475221174246</v>
+        <v>-0.04636762133399051</v>
       </c>
       <c r="D9">
-        <v>0.05562136660606048</v>
+        <v>-0.01654702480969825</v>
       </c>
       <c r="E9">
-        <v>0.003909697987716559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01603584762030113</v>
+      </c>
+      <c r="F9">
+        <v>0.01181213908479532</v>
+      </c>
+      <c r="G9">
+        <v>0.08337739624543145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.023347852856052</v>
+        <v>0.09505365478695625</v>
       </c>
       <c r="C10">
-        <v>0.1715204169838581</v>
+        <v>0.182989190701823</v>
       </c>
       <c r="D10">
-        <v>-0.09210335164029479</v>
+        <v>0.0157573203169582</v>
       </c>
       <c r="E10">
-        <v>-0.01134747802901547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01688500077429391</v>
+      </c>
+      <c r="F10">
+        <v>-0.02135924117568652</v>
+      </c>
+      <c r="G10">
+        <v>0.05167989872785091</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0004569694131013447</v>
+        <v>0.03493525946211019</v>
       </c>
       <c r="C11">
-        <v>0.002334570827436696</v>
+        <v>-0.0541877522425498</v>
       </c>
       <c r="D11">
-        <v>0.04380859881398111</v>
+        <v>-0.002538757363830026</v>
       </c>
       <c r="E11">
-        <v>-0.006119331017383761</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.008351858800707403</v>
+      </c>
+      <c r="F11">
+        <v>0.02212175477306475</v>
+      </c>
+      <c r="G11">
+        <v>0.06476725959124473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.006212283374935764</v>
+        <v>0.03642856340081228</v>
       </c>
       <c r="C12">
-        <v>0.008973786257016197</v>
+        <v>-0.04854269097643123</v>
       </c>
       <c r="D12">
-        <v>0.04819044540589004</v>
+        <v>-0.006273615106937759</v>
       </c>
       <c r="E12">
-        <v>0.005866718192570251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-4.009749938925439e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.001486941305793907</v>
+      </c>
+      <c r="G12">
+        <v>0.06078320577181506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0239295381540357</v>
+        <v>0.01560101390474487</v>
       </c>
       <c r="C13">
-        <v>0.01764887746665013</v>
+        <v>-0.0368389340987145</v>
       </c>
       <c r="D13">
-        <v>0.004558322042606221</v>
+        <v>-0.02609813131395856</v>
       </c>
       <c r="E13">
-        <v>-0.009365873215149714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02837971535265023</v>
+      </c>
+      <c r="F13">
+        <v>0.007435002410867373</v>
+      </c>
+      <c r="G13">
+        <v>0.09521679427958331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.00860992074272175</v>
+        <v>0.008011491472149938</v>
       </c>
       <c r="C14">
-        <v>0.01440059957059793</v>
+        <v>-0.02684427307543634</v>
       </c>
       <c r="D14">
-        <v>0.009389048680448884</v>
+        <v>-0.009436139246638567</v>
       </c>
       <c r="E14">
-        <v>0.007892520458014958</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>6.705165471250981e-05</v>
+      </c>
+      <c r="F14">
+        <v>-0.006687592419797666</v>
+      </c>
+      <c r="G14">
+        <v>0.08096696726591832</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001400468284968919</v>
+        <v>0.03365800177322523</v>
       </c>
       <c r="C16">
-        <v>0.008520377422310226</v>
+        <v>-0.04847594937273722</v>
       </c>
       <c r="D16">
-        <v>0.0496558322439058</v>
+        <v>-0.002038195091379626</v>
       </c>
       <c r="E16">
-        <v>0.005066885382903988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.00737771056027877</v>
+      </c>
+      <c r="F16">
+        <v>0.002678709481554106</v>
+      </c>
+      <c r="G16">
+        <v>0.06687342228654329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01499960697593233</v>
+        <v>0.0210388374953706</v>
       </c>
       <c r="C19">
-        <v>0.01890396945716557</v>
+        <v>-0.04882631957566286</v>
       </c>
       <c r="D19">
-        <v>0.02364432174037061</v>
+        <v>-0.0185852427281866</v>
       </c>
       <c r="E19">
-        <v>0.005331501455441227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.06473140917364312</v>
+      </c>
+      <c r="F19">
+        <v>0.0221762231274658</v>
+      </c>
+      <c r="G19">
+        <v>0.110947784411679</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01065322280871744</v>
+        <v>0.01500000248741768</v>
       </c>
       <c r="C20">
-        <v>0.005029817916688124</v>
+        <v>-0.03724520023443163</v>
       </c>
       <c r="D20">
-        <v>0.01608349593613992</v>
+        <v>-0.01399626967218744</v>
       </c>
       <c r="E20">
-        <v>-0.01087021732500616</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02665824624653265</v>
+      </c>
+      <c r="F20">
+        <v>-0.01022237167451892</v>
+      </c>
+      <c r="G20">
+        <v>0.08667243844935578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01481991683909448</v>
+        <v>0.01324382376761759</v>
       </c>
       <c r="C21">
-        <v>0.01741241845032336</v>
+        <v>-0.03819850089542651</v>
       </c>
       <c r="D21">
-        <v>0.02394827740994021</v>
+        <v>-0.01807259294291279</v>
       </c>
       <c r="E21">
-        <v>0.009935265684413873</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03959640790357346</v>
+      </c>
+      <c r="F21">
+        <v>0.0001784292912651393</v>
+      </c>
+      <c r="G21">
+        <v>0.1157238224173325</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0001816693315387059</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1.892590458396979e-06</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>-3.880528568877593e-05</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.0001950062684806219</v>
+      </c>
+      <c r="F22">
+        <v>2.938287145597907e-05</v>
+      </c>
+      <c r="G22">
+        <v>0.0001558825508911898</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0001816693315387059</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1.892590458396979e-06</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>-3.880528568877593e-05</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.0001950062684806219</v>
+      </c>
+      <c r="F23">
+        <v>2.938287145597907e-05</v>
+      </c>
+      <c r="G23">
+        <v>0.0001558825508911898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004384711821747437</v>
+        <v>0.02828149645001962</v>
       </c>
       <c r="C24">
-        <v>-0.002149508135985729</v>
+        <v>-0.05125127193721032</v>
       </c>
       <c r="D24">
-        <v>0.04467250865085843</v>
+        <v>-0.007380766514759757</v>
       </c>
       <c r="E24">
-        <v>0.0008101229532392494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.004537082227616455</v>
+      </c>
+      <c r="F24">
+        <v>0.01461431157574795</v>
+      </c>
+      <c r="G24">
+        <v>0.06855321118391725</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01234463276991939</v>
+        <v>0.04292322599978229</v>
       </c>
       <c r="C25">
-        <v>0.01486018254196679</v>
+        <v>-0.05811059340147565</v>
       </c>
       <c r="D25">
-        <v>0.04711248073466617</v>
+        <v>-0.01142223550964562</v>
       </c>
       <c r="E25">
-        <v>0.001260804004727834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.001704592908323391</v>
+      </c>
+      <c r="F25">
+        <v>0.00871447394869666</v>
+      </c>
+      <c r="G25">
+        <v>0.07618232331967442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02357058480013828</v>
+        <v>0.01480471818834516</v>
       </c>
       <c r="C26">
-        <v>0.0106891875756858</v>
+        <v>-0.009282646301706018</v>
       </c>
       <c r="D26">
-        <v>-0.003244657857319917</v>
+        <v>-0.02357727584700708</v>
       </c>
       <c r="E26">
-        <v>0.009031064185547683</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.004916363106299104</v>
+      </c>
+      <c r="F26">
+        <v>-0.008933883804391958</v>
+      </c>
+      <c r="G26">
+        <v>0.06433332889483356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.04733559469790913</v>
+        <v>0.1222794027005464</v>
       </c>
       <c r="C28">
-        <v>0.2471122955335198</v>
+        <v>0.2369659655084745</v>
       </c>
       <c r="D28">
-        <v>-0.1379618180869934</v>
+        <v>0.006753185427119944</v>
       </c>
       <c r="E28">
-        <v>0.0114691999437164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.004276673555202489</v>
+      </c>
+      <c r="F28">
+        <v>-0.01647000684147721</v>
+      </c>
+      <c r="G28">
+        <v>0.06735916135154374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.009127083602426376</v>
+        <v>0.009722147560581125</v>
       </c>
       <c r="C29">
-        <v>0.01941115321975607</v>
+        <v>-0.01997365615079169</v>
       </c>
       <c r="D29">
-        <v>0.007307288563599664</v>
+        <v>-0.008251469427833566</v>
       </c>
       <c r="E29">
-        <v>0.00347237230448934</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.001388660822415224</v>
+      </c>
+      <c r="F29">
+        <v>-0.01605986737236181</v>
+      </c>
+      <c r="G29">
+        <v>0.07298888959985478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02382439195458372</v>
+        <v>0.04292390833810297</v>
       </c>
       <c r="C30">
-        <v>-0.001179317675516344</v>
+        <v>-0.06549711870328408</v>
       </c>
       <c r="D30">
-        <v>0.05861007147929789</v>
+        <v>-0.02906285516935808</v>
       </c>
       <c r="E30">
-        <v>-0.0473503981643584</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.05109551903626731</v>
+      </c>
+      <c r="F30">
+        <v>0.04977246721639887</v>
+      </c>
+      <c r="G30">
+        <v>0.08540481835485346</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.009988860617379035</v>
+        <v>0.05299920007221003</v>
       </c>
       <c r="C31">
-        <v>0.03872465350703235</v>
+        <v>-0.0357829591384578</v>
       </c>
       <c r="D31">
-        <v>0.04692448553589223</v>
+        <v>-0.003323346663556381</v>
       </c>
       <c r="E31">
-        <v>0.01025685155146436</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.005033813630670996</v>
+      </c>
+      <c r="F31">
+        <v>-0.04141587608390512</v>
+      </c>
+      <c r="G31">
+        <v>0.0695426935901933</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00491189788339468</v>
+        <v>0.001309198989645079</v>
       </c>
       <c r="C32">
-        <v>0.02213574263453755</v>
+        <v>-0.02273782693384983</v>
       </c>
       <c r="D32">
-        <v>-0.005571425946393248</v>
+        <v>0.003833824657099807</v>
       </c>
       <c r="E32">
-        <v>0.05046382977901533</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.0162630532102353</v>
+      </c>
+      <c r="F32">
+        <v>0.04117800101840322</v>
+      </c>
+      <c r="G32">
+        <v>0.09967505874432914</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01403484381723305</v>
+        <v>0.02794104323510379</v>
       </c>
       <c r="C33">
-        <v>0.02214824173298276</v>
+        <v>-0.04800889599617797</v>
       </c>
       <c r="D33">
-        <v>0.03174442931892291</v>
+        <v>-0.01542174718439124</v>
       </c>
       <c r="E33">
-        <v>-0.03001018425903374</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03285119880201714</v>
+      </c>
+      <c r="F33">
+        <v>0.01936120380231447</v>
+      </c>
+      <c r="G33">
+        <v>0.1075914507779995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.004095378656087901</v>
+        <v>0.04016622189320272</v>
       </c>
       <c r="C34">
-        <v>0.01507018628207055</v>
+        <v>-0.06282235523179742</v>
       </c>
       <c r="D34">
-        <v>0.05207058790264127</v>
+        <v>0.004322108999998379</v>
       </c>
       <c r="E34">
-        <v>0.009301892960819135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.00121140420450329</v>
+      </c>
+      <c r="F34">
+        <v>0.02157197212374938</v>
+      </c>
+      <c r="G34">
+        <v>0.07654754905301793</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01331766070437714</v>
+        <v>0.01558696884800382</v>
       </c>
       <c r="C36">
-        <v>0.01986431813474071</v>
+        <v>-0.00825245244263053</v>
       </c>
       <c r="D36">
-        <v>0.004122013041281127</v>
+        <v>-0.01176906246120732</v>
       </c>
       <c r="E36">
-        <v>0.003390155183304531</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001234179386797578</v>
+      </c>
+      <c r="F36">
+        <v>-0.007784324792592704</v>
+      </c>
+      <c r="G36">
+        <v>0.06269922008303816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.003142443970475768</v>
+        <v>0.03249577673182463</v>
       </c>
       <c r="C38">
-        <v>0.03080645505339075</v>
+        <v>-0.03146665466738672</v>
       </c>
       <c r="D38">
-        <v>0.04317164526424846</v>
+        <v>0.00756034171164536</v>
       </c>
       <c r="E38">
-        <v>0.005742075504502518</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002826578989324444</v>
+      </c>
+      <c r="F38">
+        <v>-0.01803167261713203</v>
+      </c>
+      <c r="G38">
+        <v>0.06600864357503763</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.004178753840189098</v>
+        <v>0.03574233981469259</v>
       </c>
       <c r="C39">
-        <v>-0.02388092963520846</v>
+        <v>-0.08033394172777297</v>
       </c>
       <c r="D39">
-        <v>0.08607124980338689</v>
+        <v>-0.01197069695962119</v>
       </c>
       <c r="E39">
-        <v>-0.0104249128882126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.019542910127587</v>
+      </c>
+      <c r="F39">
+        <v>0.02865844556056004</v>
+      </c>
+      <c r="G39">
+        <v>0.06598231657066651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0122476045735836</v>
+        <v>0.01556269359542733</v>
       </c>
       <c r="C40">
-        <v>0.01492177704877043</v>
+        <v>-0.04170146142696801</v>
       </c>
       <c r="D40">
-        <v>0.0271718368169762</v>
+        <v>-0.0151214476410148</v>
       </c>
       <c r="E40">
-        <v>0.002144723170085792</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02148779608632237</v>
+      </c>
+      <c r="F40">
+        <v>-0.01359473547214344</v>
+      </c>
+      <c r="G40">
+        <v>0.1068277141417033</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006634396977051294</v>
+        <v>0.01903885315713114</v>
       </c>
       <c r="C41">
-        <v>0.02177679680987704</v>
+        <v>0.0008072584822003979</v>
       </c>
       <c r="D41">
-        <v>-0.008537497715635589</v>
+        <v>-0.003757163667768556</v>
       </c>
       <c r="E41">
-        <v>0.003024736284545173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>1.723135096599609e-05</v>
+      </c>
+      <c r="F41">
+        <v>-0.01026124823955306</v>
+      </c>
+      <c r="G41">
+        <v>0.04904053319752952</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.09301840039035124</v>
+        <v>0.01038849246415631</v>
       </c>
       <c r="C42">
-        <v>-0.02375663810207643</v>
+        <v>-0.03745110876498142</v>
       </c>
       <c r="D42">
-        <v>0.2676366438930158</v>
+        <v>-0.0934212750974619</v>
       </c>
       <c r="E42">
-        <v>-0.4161065167162073</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.02832509417728032</v>
+      </c>
+      <c r="F42">
+        <v>-0.03574848876655475</v>
+      </c>
+      <c r="G42">
+        <v>-0.1542257958471985</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.00800001606303513</v>
+        <v>0.03380592638149624</v>
       </c>
       <c r="C43">
-        <v>0.02598733140523471</v>
+        <v>-0.01320378399257701</v>
       </c>
       <c r="D43">
-        <v>-0.005445593036330713</v>
+        <v>-0.005468755396820994</v>
       </c>
       <c r="E43">
-        <v>-0.002218677530895656</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01307655080076121</v>
+      </c>
+      <c r="F43">
+        <v>-0.002854193819623722</v>
+      </c>
+      <c r="G43">
+        <v>0.07362061380937236</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.00251657826650007</v>
+        <v>0.01294371985975499</v>
       </c>
       <c r="C44">
-        <v>0.0007038407031940574</v>
+        <v>-0.05509780779094172</v>
       </c>
       <c r="D44">
-        <v>0.03597570869638941</v>
+        <v>-0.006744492033240329</v>
       </c>
       <c r="E44">
-        <v>0.006319718093128819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01796397429019405</v>
+      </c>
+      <c r="F44">
+        <v>-0.00810560752500618</v>
+      </c>
+      <c r="G44">
+        <v>0.08946240827459878</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01132831981430619</v>
+        <v>0.007573060647665084</v>
       </c>
       <c r="C46">
-        <v>0.01385584897447703</v>
+        <v>-0.0152793439471867</v>
       </c>
       <c r="D46">
-        <v>0.01088215066229422</v>
+        <v>-0.01195913717667599</v>
       </c>
       <c r="E46">
-        <v>-0.00116400746963221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.001235726785658389</v>
+      </c>
+      <c r="F46">
+        <v>-0.01540190851958397</v>
+      </c>
+      <c r="G46">
+        <v>0.07267397629875559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.004748976662786349</v>
+        <v>0.07844621450165273</v>
       </c>
       <c r="C47">
-        <v>0.04915682629796847</v>
+        <v>-0.06482100823488175</v>
       </c>
       <c r="D47">
-        <v>0.07194149867856592</v>
+        <v>0.005277110411258286</v>
       </c>
       <c r="E47">
-        <v>0.005040557236837538</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.00902238985309629</v>
+      </c>
+      <c r="F47">
+        <v>-0.05513822931316704</v>
+      </c>
+      <c r="G47">
+        <v>0.06421899592052195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.004287396423617989</v>
+        <v>0.02084296521483229</v>
       </c>
       <c r="C48">
-        <v>0.02455839207196563</v>
+        <v>-0.0109892527098761</v>
       </c>
       <c r="D48">
-        <v>0.01700352728271554</v>
+        <v>-0.001128100091566831</v>
       </c>
       <c r="E48">
-        <v>0.002964210361612098</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001577615409844494</v>
+      </c>
+      <c r="F48">
+        <v>-0.02196995397966309</v>
+      </c>
+      <c r="G48">
+        <v>0.0681545396507319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.006955702182502188</v>
+        <v>0.0766629335277406</v>
       </c>
       <c r="C50">
-        <v>0.05209488412673381</v>
+        <v>-0.06826961066985063</v>
       </c>
       <c r="D50">
-        <v>0.0701720508093473</v>
+        <v>0.002959258432298441</v>
       </c>
       <c r="E50">
-        <v>0.03289520569559353</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.00930511210139425</v>
+      </c>
+      <c r="F50">
+        <v>-0.05974889421432878</v>
+      </c>
+      <c r="G50">
+        <v>0.08373938384528894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007507118775047857</v>
+        <v>0.014185197122178</v>
       </c>
       <c r="C51">
-        <v>0.01423481641901827</v>
+        <v>-0.03396186452801007</v>
       </c>
       <c r="D51">
-        <v>0.00478357237299652</v>
+        <v>-0.009998093932619015</v>
       </c>
       <c r="E51">
-        <v>0.005211227196995978</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01600539755003822</v>
+      </c>
+      <c r="F51">
+        <v>0.02367151995921374</v>
+      </c>
+      <c r="G51">
+        <v>0.1033311865812683</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.007732568098879644</v>
+        <v>0.08229479877341722</v>
       </c>
       <c r="C53">
-        <v>0.05954343802967195</v>
+        <v>-0.08330941155145712</v>
       </c>
       <c r="D53">
-        <v>0.1281769057056653</v>
+        <v>0.004086119123969703</v>
       </c>
       <c r="E53">
-        <v>0.01258589618895677</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02792728456607681</v>
+      </c>
+      <c r="F53">
+        <v>-0.0672074200884039</v>
+      </c>
+      <c r="G53">
+        <v>0.06365530595502857</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002062674931679624</v>
+        <v>0.02956230384474708</v>
       </c>
       <c r="C54">
-        <v>0.03519487607717809</v>
+        <v>-0.01407505198151426</v>
       </c>
       <c r="D54">
-        <v>-0.005586122939981212</v>
+        <v>0.001773769608784423</v>
       </c>
       <c r="E54">
-        <v>0.001115822994363186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.009229759510469112</v>
+      </c>
+      <c r="F54">
+        <v>-0.0005599082664399081</v>
+      </c>
+      <c r="G54">
+        <v>0.075648838647273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.003781542336620144</v>
+        <v>0.07205073265819135</v>
       </c>
       <c r="C55">
-        <v>0.03869986122010675</v>
+        <v>-0.06860783872704039</v>
       </c>
       <c r="D55">
-        <v>0.1053026618228797</v>
+        <v>0.005341976681021441</v>
       </c>
       <c r="E55">
-        <v>-0.0007810879546978314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02405694072048614</v>
+      </c>
+      <c r="F55">
+        <v>-0.06361578697123883</v>
+      </c>
+      <c r="G55">
+        <v>0.03898465297989059</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.006942338311316065</v>
+        <v>0.1390718591515503</v>
       </c>
       <c r="C56">
-        <v>0.082591371956264</v>
+        <v>-0.1080887164702997</v>
       </c>
       <c r="D56">
-        <v>0.1658097587864012</v>
+        <v>0.01249916228315671</v>
       </c>
       <c r="E56">
-        <v>0.001912871686516744</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03140096127016464</v>
+      </c>
+      <c r="F56">
+        <v>-0.08110432527014533</v>
+      </c>
+      <c r="G56">
+        <v>0.01558898377486872</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02325511276020886</v>
+        <v>0.006949594466114801</v>
       </c>
       <c r="C57">
-        <v>0.006936754086642969</v>
+        <v>-0.00907050239849907</v>
       </c>
       <c r="D57">
-        <v>0.04593710561752293</v>
+        <v>-0.02359701994418612</v>
       </c>
       <c r="E57">
-        <v>-0.003067622021889465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.0238203613736173</v>
+      </c>
+      <c r="F57">
+        <v>0.009301322757817324</v>
+      </c>
+      <c r="G57">
+        <v>0.0283483687598878</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01686666262348457</v>
+        <v>0.0622459558337773</v>
       </c>
       <c r="C58">
-        <v>0.07586628975164407</v>
+        <v>-0.04610338990711932</v>
       </c>
       <c r="D58">
-        <v>0.1386543251085197</v>
+        <v>-0.02922906911951108</v>
       </c>
       <c r="E58">
-        <v>-0.4154838255043946</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9393354470245592</v>
+      </c>
+      <c r="F58">
+        <v>-0.224077980700555</v>
+      </c>
+      <c r="G58">
+        <v>-0.112119947970662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.04475640967568314</v>
+        <v>0.1571624683117101</v>
       </c>
       <c r="C59">
-        <v>0.2605534455578173</v>
+        <v>0.2044252171247743</v>
       </c>
       <c r="D59">
-        <v>-0.138374101884975</v>
+        <v>0.01205658808212976</v>
       </c>
       <c r="E59">
-        <v>0.00504360407105557</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01555940681433412</v>
+      </c>
+      <c r="F59">
+        <v>-0.0005196562412198986</v>
+      </c>
+      <c r="G59">
+        <v>0.04222518746792835</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.0438305307918643</v>
+        <v>0.2876758691798029</v>
       </c>
       <c r="C60">
-        <v>0.160739717993064</v>
+        <v>-0.1002447072871647</v>
       </c>
       <c r="D60">
-        <v>0.08648932866251213</v>
+        <v>-0.01287662677419662</v>
       </c>
       <c r="E60">
-        <v>0.003262247980202503</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.002699381048733563</v>
+      </c>
+      <c r="F60">
+        <v>0.3524576154138002</v>
+      </c>
+      <c r="G60">
+        <v>-0.1224082218689532</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003103818097581487</v>
+        <v>0.03764520703405496</v>
       </c>
       <c r="C61">
-        <v>0.003736147730639207</v>
+        <v>-0.06669764445003536</v>
       </c>
       <c r="D61">
-        <v>0.06229411301624323</v>
+        <v>-0.005338730933891932</v>
       </c>
       <c r="E61">
-        <v>0.002365692967628555</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01183765960204598</v>
+      </c>
+      <c r="F61">
+        <v>0.01558329897903839</v>
+      </c>
+      <c r="G61">
+        <v>0.06708694588053998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.008087363880666752</v>
+        <v>0.01436302602305904</v>
       </c>
       <c r="C63">
-        <v>0.007650525097249295</v>
+        <v>-0.02913900974506361</v>
       </c>
       <c r="D63">
-        <v>0.01271602602038155</v>
+        <v>-0.008215869618879108</v>
       </c>
       <c r="E63">
-        <v>0.01008984668850176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.001118230664220289</v>
+      </c>
+      <c r="F63">
+        <v>-0.01795475238803287</v>
+      </c>
+      <c r="G63">
+        <v>0.07295402313103386</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009103294968232931</v>
+        <v>0.04765577445160187</v>
       </c>
       <c r="C64">
-        <v>0.0256380483474932</v>
+        <v>-0.04575483436850593</v>
       </c>
       <c r="D64">
-        <v>0.06406668469337995</v>
+        <v>-0.006485397002984141</v>
       </c>
       <c r="E64">
-        <v>-0.01443780450193009</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.001247492196684442</v>
+      </c>
+      <c r="F64">
+        <v>0.00693345606132144</v>
+      </c>
+      <c r="G64">
+        <v>0.06313777526507974</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0168580750779821</v>
+        <v>0.0772145011140357</v>
       </c>
       <c r="C65">
-        <v>0.003265084364431669</v>
+        <v>-0.0594035689834073</v>
       </c>
       <c r="D65">
-        <v>0.09984358614078552</v>
+        <v>-0.01646810442121685</v>
       </c>
       <c r="E65">
-        <v>0.01191639707327246</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.02744053185477936</v>
+      </c>
+      <c r="F65">
+        <v>0.03111582699720368</v>
+      </c>
+      <c r="G65">
+        <v>0.0265698251135158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.003971687166097587</v>
+        <v>0.05162243706191599</v>
       </c>
       <c r="C66">
-        <v>-0.0198675933516002</v>
+        <v>-0.1101855596482464</v>
       </c>
       <c r="D66">
-        <v>0.1095131125919627</v>
+        <v>-0.01201150231024298</v>
       </c>
       <c r="E66">
-        <v>-0.007440715968665087</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02704555018823296</v>
+      </c>
+      <c r="F66">
+        <v>0.038227440354757</v>
+      </c>
+      <c r="G66">
+        <v>0.07747883907383354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.003805964659686827</v>
+        <v>0.05523077696021231</v>
       </c>
       <c r="C67">
-        <v>0.05302173642703602</v>
+        <v>-0.03466474812620583</v>
       </c>
       <c r="D67">
-        <v>0.05027338931217239</v>
+        <v>0.005821633538581823</v>
       </c>
       <c r="E67">
-        <v>0.006979335977183676</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003571989373226697</v>
+      </c>
+      <c r="F67">
+        <v>-0.01814550643458478</v>
+      </c>
+      <c r="G67">
+        <v>0.05986823292986757</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06135873708750384</v>
+        <v>0.1465984907842336</v>
       </c>
       <c r="C68">
-        <v>0.2402249788349372</v>
+        <v>0.2684120064190408</v>
       </c>
       <c r="D68">
-        <v>-0.1506956087491264</v>
+        <v>-0.005441216261856853</v>
       </c>
       <c r="E68">
-        <v>-0.01554147647180432</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01116576033506987</v>
+      </c>
+      <c r="F68">
+        <v>-0.03234819786232049</v>
+      </c>
+      <c r="G68">
+        <v>0.02320715004244338</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.0006379923858692618</v>
+        <v>0.08214437824809785</v>
       </c>
       <c r="C69">
-        <v>0.03797774399195774</v>
+        <v>-0.06787525577942155</v>
       </c>
       <c r="D69">
-        <v>0.07116710302075924</v>
+        <v>0.009499372907073939</v>
       </c>
       <c r="E69">
-        <v>0.01048595584450126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02639135741943103</v>
+      </c>
+      <c r="F69">
+        <v>-0.03928659518232881</v>
+      </c>
+      <c r="G69">
+        <v>0.06571856350082622</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.04552736189710958</v>
+        <v>0.1346854938132236</v>
       </c>
       <c r="C71">
-        <v>0.2093205114179733</v>
+        <v>0.229653121563371</v>
       </c>
       <c r="D71">
-        <v>-0.1203998983455038</v>
+        <v>0.003208366485039177</v>
       </c>
       <c r="E71">
-        <v>-0.009137900571621558</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.03041434947286546</v>
+      </c>
+      <c r="F71">
+        <v>-0.01664162253616328</v>
+      </c>
+      <c r="G71">
+        <v>0.05687596533802293</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0005502097041543886</v>
+        <v>0.08629324664078446</v>
       </c>
       <c r="C72">
-        <v>0.03779942694508258</v>
+        <v>-0.07023353262602884</v>
       </c>
       <c r="D72">
-        <v>0.1167981416867347</v>
+        <v>0.007769755214166494</v>
       </c>
       <c r="E72">
-        <v>0.005949019723645753</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.002106961742759056</v>
+      </c>
+      <c r="F72">
+        <v>0.04360836128907283</v>
+      </c>
+      <c r="G72">
+        <v>0.06407375269622151</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.05535407757085547</v>
+        <v>0.3797145642703941</v>
       </c>
       <c r="C73">
-        <v>0.1717156916399651</v>
+        <v>-0.1107669955069716</v>
       </c>
       <c r="D73">
-        <v>0.1684808454844405</v>
+        <v>-0.02195245733837339</v>
       </c>
       <c r="E73">
-        <v>-0.03597329686623608</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.06156537048300732</v>
+      </c>
+      <c r="F73">
+        <v>0.5734034410326063</v>
+      </c>
+      <c r="G73">
+        <v>-0.2047703012055244</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.003741221889301921</v>
+        <v>0.1073108437882214</v>
       </c>
       <c r="C74">
-        <v>0.06733327675293517</v>
+        <v>-0.1098767641397598</v>
       </c>
       <c r="D74">
-        <v>0.1632295824406613</v>
+        <v>0.009651038981092951</v>
       </c>
       <c r="E74">
-        <v>-0.008893775108905924</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01003405895366829</v>
+      </c>
+      <c r="F74">
+        <v>-0.07262508660301568</v>
+      </c>
+      <c r="G74">
+        <v>0.06079825330649475</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01351852690979887</v>
+        <v>0.2518553502792211</v>
       </c>
       <c r="C75">
-        <v>0.1653405909665501</v>
+        <v>-0.1482616051272889</v>
       </c>
       <c r="D75">
-        <v>0.3020839001559202</v>
+        <v>0.03074811576096827</v>
       </c>
       <c r="E75">
-        <v>-0.0138758279805347</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.05541700524183387</v>
+      </c>
+      <c r="F75">
+        <v>-0.1781929991729101</v>
+      </c>
+      <c r="G75">
+        <v>-0.05693540296930955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.001208480219367992</v>
+        <v>0.122850810391554</v>
       </c>
       <c r="C76">
-        <v>0.1034768102839835</v>
+        <v>-0.1128548638795459</v>
       </c>
       <c r="D76">
-        <v>0.2316614244456313</v>
+        <v>0.02009405997069404</v>
       </c>
       <c r="E76">
-        <v>0.03467975641072762</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.03918630655741484</v>
+      </c>
+      <c r="F76">
+        <v>-0.1181744767747041</v>
+      </c>
+      <c r="G76">
+        <v>0.03740772342379994</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01417387138206523</v>
+        <v>0.06686821182098369</v>
       </c>
       <c r="C77">
-        <v>0.01872104010873139</v>
+        <v>-0.06050249365956964</v>
       </c>
       <c r="D77">
-        <v>0.03560252400859797</v>
+        <v>-0.01277793554174843</v>
       </c>
       <c r="E77">
-        <v>-0.01791608069271338</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04989117083832081</v>
+      </c>
+      <c r="F77">
+        <v>0.01407045657167494</v>
+      </c>
+      <c r="G77">
+        <v>0.06131929252089654</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.006443243423633983</v>
+        <v>0.04454840935593468</v>
       </c>
       <c r="C78">
-        <v>0.01911413885332293</v>
+        <v>-0.04898320498109552</v>
       </c>
       <c r="D78">
-        <v>0.04019303245112486</v>
+        <v>-0.005554924034601898</v>
       </c>
       <c r="E78">
-        <v>-0.003945144975473549</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02210081164716761</v>
+      </c>
+      <c r="F78">
+        <v>0.03684221106317873</v>
+      </c>
+      <c r="G78">
+        <v>0.07080532954671459</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01709437982769688</v>
+        <v>0.05639523500197875</v>
       </c>
       <c r="C80">
-        <v>0.07924192508439161</v>
+        <v>-0.06972883797505249</v>
       </c>
       <c r="D80">
-        <v>0.2211862285352738</v>
+        <v>-0.01040829030553774</v>
       </c>
       <c r="E80">
-        <v>0.7828343996208075</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.02573199970158958</v>
+      </c>
+      <c r="F80">
+        <v>-0.001776049122024024</v>
+      </c>
+      <c r="G80">
+        <v>0.6181198834097522</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.008759830743697728</v>
+        <v>0.140076718029241</v>
       </c>
       <c r="C81">
-        <v>0.09866906181072949</v>
+        <v>-0.09552231085717784</v>
       </c>
       <c r="D81">
-        <v>0.1717923002068005</v>
+        <v>0.01515900153189357</v>
       </c>
       <c r="E81">
-        <v>0.01428282631873583</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03280026991858383</v>
+      </c>
+      <c r="F81">
+        <v>-0.1333055066548459</v>
+      </c>
+      <c r="G81">
+        <v>0.02043879321334848</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1234020107627667</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.06933498254511247</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.007382084580766781</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.08626666450105688</v>
+      </c>
+      <c r="F82">
+        <v>-0.03276876626932156</v>
+      </c>
+      <c r="G82">
+        <v>0.02882865381619072</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.007357306485988393</v>
+        <v>0.03714810604312695</v>
       </c>
       <c r="C83">
-        <v>0.01972903550952749</v>
+        <v>-0.02666616003334239</v>
       </c>
       <c r="D83">
-        <v>0.02084983529940794</v>
+        <v>-0.005511511989932619</v>
       </c>
       <c r="E83">
-        <v>-0.0004353432765132367</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02508202634552019</v>
+      </c>
+      <c r="F83">
+        <v>0.03533191803548368</v>
+      </c>
+      <c r="G83">
+        <v>0.04688676658375589</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.01997147053948622</v>
+        <v>0.2170659623765188</v>
       </c>
       <c r="C85">
-        <v>0.1316284785837147</v>
+        <v>-0.144761811080497</v>
       </c>
       <c r="D85">
-        <v>0.2733409777921049</v>
+        <v>0.01844613064841321</v>
       </c>
       <c r="E85">
-        <v>-0.006949943741060667</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.0947273880606372</v>
+      </c>
+      <c r="F85">
+        <v>-0.1391921964692683</v>
+      </c>
+      <c r="G85">
+        <v>-0.1097353100371919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.009958551730953318</v>
+        <v>0.01468382808786279</v>
       </c>
       <c r="C86">
-        <v>0.03064712117360451</v>
+        <v>-0.02552754415775724</v>
       </c>
       <c r="D86">
-        <v>0.009408715299007029</v>
+        <v>-0.01203490011005413</v>
       </c>
       <c r="E86">
-        <v>-0.03501183754788436</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.04399609179530223</v>
+      </c>
+      <c r="F86">
+        <v>0.03528438296697043</v>
+      </c>
+      <c r="G86">
+        <v>0.1565911338034247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.008794750006880472</v>
+        <v>0.02421460245587858</v>
       </c>
       <c r="C87">
-        <v>0.008026221995238945</v>
+        <v>-0.02087795756012632</v>
       </c>
       <c r="D87">
-        <v>0.040612481108257</v>
+        <v>-0.01215730236870173</v>
       </c>
       <c r="E87">
-        <v>-0.008154127989212279</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.0832764780342105</v>
+      </c>
+      <c r="F87">
+        <v>0.02226622726907983</v>
+      </c>
+      <c r="G87">
+        <v>0.1023551589095089</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02797874073860342</v>
+        <v>0.09127115993194462</v>
       </c>
       <c r="C88">
-        <v>0.02869625279990535</v>
+        <v>-0.06474780161086008</v>
       </c>
       <c r="D88">
-        <v>0.03778599747662556</v>
+        <v>-0.02256348757651029</v>
       </c>
       <c r="E88">
-        <v>0.001333404744359194</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.009636160778674102</v>
+      </c>
+      <c r="F88">
+        <v>-0.01898885371825608</v>
+      </c>
+      <c r="G88">
+        <v>0.05008307733465155</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.08729059751805837</v>
+        <v>0.2267518150893947</v>
       </c>
       <c r="C89">
-        <v>0.3907483805898675</v>
+        <v>0.3727967501748604</v>
       </c>
       <c r="D89">
-        <v>-0.2126124110828992</v>
+        <v>0.002068564081714586</v>
       </c>
       <c r="E89">
-        <v>0.01744365455482867</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02156951283999388</v>
+      </c>
+      <c r="F89">
+        <v>-0.03599401010068955</v>
+      </c>
+      <c r="G89">
+        <v>0.05064635623228861</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0663925283875214</v>
+        <v>0.2019317510645212</v>
       </c>
       <c r="C90">
-        <v>0.3025387358873418</v>
+        <v>0.3232904392416114</v>
       </c>
       <c r="D90">
-        <v>-0.1891604718798238</v>
+        <v>0.005964238084889574</v>
       </c>
       <c r="E90">
-        <v>-0.01645025417652718</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.007663946981777704</v>
+      </c>
+      <c r="F90">
+        <v>-0.05057481048924041</v>
+      </c>
+      <c r="G90">
+        <v>0.01423465156983993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.009332387321963762</v>
+        <v>0.1914467274325528</v>
       </c>
       <c r="C91">
-        <v>0.1424798449880931</v>
+        <v>-0.1405685094605836</v>
       </c>
       <c r="D91">
-        <v>0.2314310688360488</v>
+        <v>0.02325850163382965</v>
       </c>
       <c r="E91">
-        <v>0.01481421421804414</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06656604520409137</v>
+      </c>
+      <c r="F91">
+        <v>-0.151429039397139</v>
+      </c>
+      <c r="G91">
+        <v>0.009273779157352474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.03313547521779318</v>
+        <v>0.1989587780167514</v>
       </c>
       <c r="C92">
-        <v>0.3131968210921965</v>
+        <v>0.2639768040222096</v>
       </c>
       <c r="D92">
-        <v>-0.08420679715654576</v>
+        <v>0.04031620311310086</v>
       </c>
       <c r="E92">
-        <v>-0.01915411336779949</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02500231862793587</v>
+      </c>
+      <c r="F92">
+        <v>-0.06403996500034749</v>
+      </c>
+      <c r="G92">
+        <v>0.1242094094326048</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.06442028289734614</v>
+        <v>0.2281520401709595</v>
       </c>
       <c r="C93">
-        <v>0.3267010785336618</v>
+        <v>0.3224309186571673</v>
       </c>
       <c r="D93">
-        <v>-0.1771365650958598</v>
+        <v>0.01287771555051201</v>
       </c>
       <c r="E93">
-        <v>-0.04140821648990534</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.004564141422894707</v>
+      </c>
+      <c r="F93">
+        <v>-0.03433749333840947</v>
+      </c>
+      <c r="G93">
+        <v>0.01811559366546165</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.033386706090855</v>
+        <v>0.317493205135046</v>
       </c>
       <c r="C94">
-        <v>0.1672850547277467</v>
+        <v>-0.1757240417090637</v>
       </c>
       <c r="D94">
-        <v>0.2645144804852221</v>
+        <v>0.01788922453491331</v>
       </c>
       <c r="E94">
-        <v>-0.01395789048913521</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1616480823587194</v>
+      </c>
+      <c r="F94">
+        <v>-0.4720008554303047</v>
+      </c>
+      <c r="G94">
+        <v>-0.308424495604759</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.004273136590891053</v>
+        <v>0.09919323556058784</v>
       </c>
       <c r="C95">
-        <v>0.0362135168007859</v>
+        <v>-0.0851563816547177</v>
       </c>
       <c r="D95">
-        <v>0.087824712509042</v>
+        <v>0.009317266861955786</v>
       </c>
       <c r="E95">
-        <v>-0.1269030723939222</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06210527714631334</v>
+      </c>
+      <c r="F95">
+        <v>0.2090554058999901</v>
+      </c>
+      <c r="G95">
+        <v>-0.1138027834933665</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.01587618934811178</v>
+        <v>0.1994347926592706</v>
       </c>
       <c r="C98">
-        <v>0.1539839302988776</v>
+        <v>-0.04346618337632119</v>
       </c>
       <c r="D98">
-        <v>0.1267839198161701</v>
+        <v>0.01241285443990521</v>
       </c>
       <c r="E98">
-        <v>-0.04508433145688591</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.06564977666025054</v>
+      </c>
+      <c r="F98">
+        <v>0.2374505629854055</v>
+      </c>
+      <c r="G98">
+        <v>-0.003100907850470058</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.008908433721199807</v>
+        <v>0.009553140505492559</v>
       </c>
       <c r="C101">
-        <v>0.01912998299791839</v>
+        <v>-0.01993821583720711</v>
       </c>
       <c r="D101">
-        <v>0.007013852031781843</v>
+        <v>-0.008071147751753686</v>
       </c>
       <c r="E101">
-        <v>0.003875058084774097</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.00166436597280131</v>
+      </c>
+      <c r="F101">
+        <v>-0.01706776579299369</v>
+      </c>
+      <c r="G101">
+        <v>0.07245593537202404</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01860898660206932</v>
+        <v>0.1186082608867562</v>
       </c>
       <c r="C102">
-        <v>0.07151041632488615</v>
+        <v>-0.08398439105598188</v>
       </c>
       <c r="D102">
-        <v>0.1349683413262387</v>
+        <v>-0.0010478961476391</v>
       </c>
       <c r="E102">
-        <v>0.0004919252383412949</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03121204691711081</v>
+      </c>
+      <c r="F102">
+        <v>-0.04155947111231025</v>
+      </c>
+      <c r="G102">
+        <v>0.001266385065737464</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.001778802960384014</v>
+        <v>0.00299828357217137</v>
       </c>
       <c r="C103">
-        <v>0.008665343560856449</v>
+        <v>-0.003992285968760433</v>
       </c>
       <c r="D103">
-        <v>0.02329750471876362</v>
+        <v>-0.0002591454239364695</v>
       </c>
       <c r="E103">
-        <v>0.01366418071049581</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.001945486344472827</v>
+      </c>
+      <c r="F103">
+        <v>-0.005044954088608241</v>
+      </c>
+      <c r="G103">
+        <v>0.01170995776064683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.973235754913863</v>
+        <v>0.02165182102684063</v>
       </c>
       <c r="C104">
-        <v>-0.1849352962264743</v>
+        <v>0.03265389183493301</v>
       </c>
       <c r="D104">
-        <v>-0.01764716743784688</v>
+        <v>-0.9871826629653941</v>
       </c>
       <c r="E104">
-        <v>0.04058091324111936</v>
+        <v>0.05338561977633045</v>
+      </c>
+      <c r="F104">
+        <v>-0.03892015538326445</v>
+      </c>
+      <c r="G104">
+        <v>-0.02453690661244302</v>
       </c>
     </row>
   </sheetData>
